--- a/testData/testOutput.xlsx
+++ b/testData/testOutput.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="110">
   <si>
     <t>Doctor Name</t>
   </si>
@@ -756,102 +756,102 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testOutput.xlsx
+++ b/testData/testOutput.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="112">
   <si>
     <t>Doctor Name</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>99%1043 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Mohamed Jalal</t>
+  </si>
+  <si>
+    <t>Valasaravakkam,Chennai  Sahas Dental &amp; Orthodontic Centre</t>
   </si>
 </sst>
 </file>
@@ -756,79 +762,79 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>24</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>107</v>
@@ -836,7 +842,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>7</v>
@@ -845,10 +851,10 @@
         <v>37</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>107</v>
